--- a/samplecode/books/21/21.turnover_worker_changed.xlsx
+++ b/samplecode/books/21/21.turnover_worker_changed.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5310" yWindow="5730" windowWidth="19035" windowHeight="10170" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="7710" yWindow="9585" windowWidth="19035" windowHeight="10170" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4月" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="202004" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -82,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -367,200 +368,218 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18.75"/>
   <cols>
     <col width="11.625" customWidth="1" min="1" max="1"/>
-    <col width="12.5" customWidth="1" min="2" max="2"/>
-    <col width="13.875" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="2" max="4"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>売価合計</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>粗利合計</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <f>SUM(C6:C15)</f>
         <v/>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <f>SUM(D6:D15)</f>
         <v/>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>名前</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>原価</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>売価</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>粗利</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>新井太郎</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="2" t="n">
         <v>774000</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>900000</v>
       </c>
-      <c r="D6" s="1" t="n"/>
+      <c r="D6" s="2" t="n">
+        <v>126000</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>鈴木一</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="2" t="n">
         <v>680000</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>765000</v>
       </c>
-      <c r="D7" s="1" t="n"/>
+      <c r="D7" s="2" t="n">
+        <v>85000</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>田中さちえ</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="2" t="n">
         <v>728000</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>819000</v>
       </c>
-      <c r="D8" s="1" t="n"/>
+      <c r="D8" s="2" t="n">
+        <v>91000</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>谷口誠</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="2" t="n">
         <v>528000</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>660000</v>
       </c>
-      <c r="D9" s="1" t="n"/>
+      <c r="D9" s="2" t="n">
+        <v>132000</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>川上恵</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="2" t="n">
         <v>550400</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>688000</v>
       </c>
-      <c r="D10" s="1" t="n"/>
+      <c r="D10" s="2" t="n">
+        <v>137600</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>斉藤厚</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="2" t="n">
         <v>496000</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="2" t="n">
         <v>620000</v>
       </c>
-      <c r="D11" s="1" t="n"/>
+      <c r="D11" s="2" t="n">
+        <v>124000</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>水野翔太</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="2" t="n">
         <v>534400</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="2" t="n">
         <v>668000</v>
       </c>
-      <c r="D12" s="1" t="n"/>
+      <c r="D12" s="2" t="n">
+        <v>133600</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>森下弘樹</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="2" t="n">
         <v>547200</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="2" t="n">
         <v>684000</v>
       </c>
-      <c r="D13" s="1" t="n"/>
+      <c r="D13" s="2" t="n">
+        <v>136800</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>水野翔太</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="2" t="n">
         <v>534400</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="2" t="n">
         <v>668000</v>
       </c>
-      <c r="D14" s="1" t="n"/>
+      <c r="D14" s="2" t="n">
+        <v>133600</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>森下弘樹</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="2" t="n">
         <v>547200</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <v>684000</v>
       </c>
-      <c r="D15" s="1" t="n"/>
+      <c r="D15" s="2" t="n">
+        <v>136800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
